--- a/ExcelToPdf/WorkExcelToPdf/Template.xlsx
+++ b/ExcelToPdf/WorkExcelToPdf/Template.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\WorkExcelToPdf\WorkExcelToPdf\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\Work-Net\ExcelToPdf\WorkExcelToPdf\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E6B408B-7739-40D3-9718-64CAB8E7D6DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4639B007-0DEA-47D5-976F-492816ACCB10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8295" yWindow="1455" windowWidth="25230" windowHeight="18120" xr2:uid="{7C75CC76-9FA3-493D-8D4B-AA527F2334B7}"/>
+    <workbookView xWindow="51360" yWindow="2325" windowWidth="25230" windowHeight="18120" xr2:uid="{7C75CC76-9FA3-493D-8D4B-AA527F2334B7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Data</t>
     <phoneticPr fontId="1"/>
@@ -67,6 +67,10 @@
   </si>
   <si>
     <t>Vlue6</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>$NAME</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -90,20 +94,28 @@
     </font>
     <font>
       <b/>
-      <sz val="20"/>
+      <i/>
+      <u/>
+      <sz val="28"/>
       <color rgb="FFFF0000"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="9">
     <border>
@@ -257,13 +269,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -603,42 +615,46 @@
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="4.625" customWidth="1"/>
+    <col min="4" max="4" width="16.625" customWidth="1"/>
     <col min="5" max="5" width="20.625" customWidth="1"/>
     <col min="6" max="7" width="10.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="24" x14ac:dyDescent="0.15">
-      <c r="D1" s="9" t="s">
+    <row r="1" spans="1:7" ht="32.25" x14ac:dyDescent="0.15">
+      <c r="D1" s="7" t="s">
         <v>0</v>
+      </c>
+      <c r="G1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="3" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="F3" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="G3" s="9" t="s">
         <v>7</v>
       </c>
     </row>

--- a/ExcelToPdf/WorkExcelToPdf/Template.xlsx
+++ b/ExcelToPdf/WorkExcelToPdf/Template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\Work-Net\ExcelToPdf\WorkExcelToPdf\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4639B007-0DEA-47D5-976F-492816ACCB10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26C61E16-4F6B-470A-ACEF-31DEE39D25C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="51360" yWindow="2325" windowWidth="25230" windowHeight="18120" xr2:uid="{7C75CC76-9FA3-493D-8D4B-AA527F2334B7}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Data</t>
     <phoneticPr fontId="1"/>
@@ -71,6 +71,26 @@
   </si>
   <si>
     <t>$NAME</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>l</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>c</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>r</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Italic</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Bold</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -78,7 +98,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -102,8 +122,24 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -113,6 +149,48 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0070C0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -247,7 +325,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -260,22 +338,52 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -615,7 +723,7 @@
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -627,47 +735,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="32.25" x14ac:dyDescent="0.15">
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="12" t="s">
         <v>0</v>
       </c>
+      <c r="E1" s="12"/>
       <c r="G1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="3" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="G3" s="7" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A4" s="5">
+      <c r="A4" s="4">
         <v>1</v>
       </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
+      <c r="B4" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" s="2">
@@ -686,8 +801,12 @@
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
+      <c r="D6" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>13</v>
+      </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
     </row>
@@ -695,25 +814,28 @@
       <c r="A7" s="2">
         <v>4</v>
       </c>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="18"/>
     </row>
     <row r="8" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>5</v>
       </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
+      <c r="B8" s="19"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="19"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="D1:E1"/>
+  </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/ExcelToPdf/WorkExcelToPdf/Template.xlsx
+++ b/ExcelToPdf/WorkExcelToPdf/Template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\Work-Net\ExcelToPdf\WorkExcelToPdf\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26C61E16-4F6B-470A-ACEF-31DEE39D25C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FCD3DC6-E226-40B9-9B04-B08E4D600643}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="51360" yWindow="2325" windowWidth="25230" windowHeight="18120" xr2:uid="{7C75CC76-9FA3-493D-8D4B-AA527F2334B7}"/>
   </bookViews>
@@ -362,29 +362,29 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -723,7 +723,7 @@
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -735,10 +735,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="32.25" x14ac:dyDescent="0.15">
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="12"/>
+      <c r="E1" s="19"/>
       <c r="G1" t="s">
         <v>8</v>
       </c>
@@ -814,23 +814,23 @@
       <c r="A7" s="2">
         <v>4</v>
       </c>
-      <c r="B7" s="13"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="18"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="17"/>
     </row>
     <row r="8" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>5</v>
       </c>
-      <c r="B8" s="19"/>
-      <c r="C8" s="19"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="19"/>
+      <c r="B8" s="18"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -838,5 +838,6 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" copies="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/ExcelToPdf/WorkExcelToPdf/Template.xlsx
+++ b/ExcelToPdf/WorkExcelToPdf/Template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\Work-Net\ExcelToPdf\WorkExcelToPdf\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FCD3DC6-E226-40B9-9B04-B08E4D600643}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC6DAE26-E7F8-4749-9D4E-59336DCA5295}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="51360" yWindow="2325" windowWidth="25230" windowHeight="18120" xr2:uid="{7C75CC76-9FA3-493D-8D4B-AA527F2334B7}"/>
+    <workbookView xWindow="39720" yWindow="1095" windowWidth="21225" windowHeight="19995" xr2:uid="{7C75CC76-9FA3-493D-8D4B-AA527F2334B7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Data</t>
     <phoneticPr fontId="1"/>
@@ -91,6 +91,14 @@
   </si>
   <si>
     <t>Bold</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>$DATE</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>$COMPANY</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -720,10 +728,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{164A0043-DEE2-4EA7-9BDB-43D11DF961CD}">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -832,6 +840,14 @@
       <c r="F8" s="18"/>
       <c r="G8" s="18"/>
     </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="D10" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" t="s">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="D1:E1"/>
